--- a/public/blockA.xlsx
+++ b/public/blockA.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="blockA" sheetId="1" r:id="rId1"/>
+    <sheet name="blockB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="263">
   <si>
     <t>No.</t>
   </si>
@@ -564,14 +565,264 @@
   </si>
   <si>
     <t>PW042023Y309147</t>
+  </si>
+  <si>
+    <t>Tank Status</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PW102018Y124381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surau </t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PW102018Y124408</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>PW102018Y120658</t>
+  </si>
+  <si>
+    <t>Chemical Store</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>PW092018Y125991</t>
+  </si>
+  <si>
+    <t>Descaling Wire Rod Area</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>FF012018Y001778</t>
+  </si>
+  <si>
+    <t>Back Entrance Lab SC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>FF012018Y000906</t>
+  </si>
+  <si>
+    <t>Lab SC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>SR032021Y080365</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>SR032022Y072992</t>
+  </si>
+  <si>
+    <t>Front Entrance Lab SC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>SR042022Y074696</t>
+  </si>
+  <si>
+    <t>Take-up Descaling</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>SR042022Y074667</t>
+  </si>
+  <si>
+    <t>Mechanical Workshop</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>SR052023Z017340</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>SR052023Z017496</t>
+  </si>
+  <si>
+    <t>Electrical Workshop</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>PW042023Y309016</t>
+  </si>
+  <si>
+    <t>In front Production Office</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>SR032021Y081630</t>
+  </si>
+  <si>
+    <t>ID Machine Area</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>EE062015Y135328</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>PW042023Y309174</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>SR032022Y072997</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>PW032018Y098108</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>PW042023Y309619</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>SR042022Y074563</t>
+  </si>
+  <si>
+    <t>Furnace PL2</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>PW092018Y125602</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>SR112017Y525959</t>
+  </si>
+  <si>
+    <t>Zn &amp; Cu Bath PL1</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>PW042023Y289178</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>PW042023Y309554</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>EE082016Y136154</t>
+  </si>
+  <si>
+    <t>HCL Bath PL1</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>SR122016Y208571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-turn Roller </t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>SR102016Y208704</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>EE022017Z015332</t>
+  </si>
+  <si>
+    <t>Between Zn &amp; Cu Bath PL1 &amp; PL2</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>PW042023Y310223</t>
+  </si>
+  <si>
+    <t>Zn &amp; Cu Bath PL2</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>PW042023Y308698</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>PW042023Y309090</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>EE052017Z015149</t>
+  </si>
+  <si>
+    <t>Rectifier Room Between PL1 &amp; PL2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -629,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,11 +900,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -952,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2057,18 +2343,748 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A64">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(C2&lt;&gt;"",C2&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(C2&lt;&gt;"",C2&lt;=TODAY()+30,C2&gt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C64">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>C1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f t="shared" ref="F2:F33" ca="1" si="0">IF(DATE(VALUE(MID(B2,5,4)),VALUE(MID(B2,3,2)),1)+3650&lt;=TODAY(),"Expired","Good")</f>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45635</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Good</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A33">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(C1&lt;&gt;"",C1&lt;TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(C1&lt;&gt;"",C1&lt;=TODAY()+30,C1&gt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C33">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>C1&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>SEARCH("Expired",F1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/blockA.xlsx
+++ b/public/blockA.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="blockA" sheetId="1" r:id="rId1"/>
+    <sheet name="Fire Extinguisher" sheetId="1" r:id="rId1"/>
     <sheet name="blockB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="299">
   <si>
     <t>No.</t>
   </si>
@@ -814,6 +814,114 @@
   </si>
   <si>
     <t>Rectifier Room Between PL1 &amp; PL2</t>
+  </si>
+  <si>
+    <t>A1-1</t>
+  </si>
+  <si>
+    <t>PW042023Y309509</t>
+  </si>
+  <si>
+    <t>Wire Rod Storage</t>
+  </si>
+  <si>
+    <t>A1-2</t>
+  </si>
+  <si>
+    <t>PW042023Y305838</t>
+  </si>
+  <si>
+    <t>Product Storage Area</t>
+  </si>
+  <si>
+    <t>A1-3</t>
+  </si>
+  <si>
+    <t>EE072017Y049266</t>
+  </si>
+  <si>
+    <t>In front chemical store</t>
+  </si>
+  <si>
+    <t>A1-4</t>
+  </si>
+  <si>
+    <t>PW072019Y154806</t>
+  </si>
+  <si>
+    <t>A1-5</t>
+  </si>
+  <si>
+    <t>PW012021Y218587</t>
+  </si>
+  <si>
+    <t>Near Info Board</t>
+  </si>
+  <si>
+    <t>A1-6</t>
+  </si>
+  <si>
+    <t>PW042023Y305817</t>
+  </si>
+  <si>
+    <t>A1-7</t>
+  </si>
+  <si>
+    <t>SR032022Y072800</t>
+  </si>
+  <si>
+    <t>Near Rewinder</t>
+  </si>
+  <si>
+    <t>A1-8</t>
+  </si>
+  <si>
+    <t>PW042023Y310287</t>
+  </si>
+  <si>
+    <t>PD Machine Area</t>
+  </si>
+  <si>
+    <t>A1-9</t>
+  </si>
+  <si>
+    <t>PW042023Y308846</t>
+  </si>
+  <si>
+    <t>Descaling Take-up Area</t>
+  </si>
+  <si>
+    <t>A1-10</t>
+  </si>
+  <si>
+    <t>PW042023Y309099</t>
+  </si>
+  <si>
+    <t>Descaling Hot Water Bath</t>
+  </si>
+  <si>
+    <t>A1-11</t>
+  </si>
+  <si>
+    <t>PW032023Y304643</t>
+  </si>
+  <si>
+    <t>Dust Collector</t>
+  </si>
+  <si>
+    <t>A1-12</t>
+  </si>
+  <si>
+    <t>SR062023Z024002</t>
+  </si>
+  <si>
+    <t>Descaling Machine Area</t>
+  </si>
+  <si>
+    <t>A1-13</t>
+  </si>
+  <si>
+    <t>PW042023Y308968</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1022,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -924,6 +1032,46 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1236,21 +1384,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C55" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2341,21 +2486,813 @@
         <v>8</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45546</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="5">
+        <v>45546</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45504</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="5">
+        <v>45635</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="5">
+        <v>45720</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" s="5">
+        <v>45671</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C109" s="5">
+        <v>45547</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A64">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>AND(C2&lt;&gt;"",C2&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(C2&lt;&gt;"",C2&lt;=TODAY()+30,C2&gt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C64">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>C1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A109">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>AND(C78&lt;&gt;"",C78&lt;TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>AND(C78&lt;&gt;"",C78&lt;=TODAY()+30,C78&gt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A77">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(C65&lt;&gt;"",C65&lt;TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>AND(C65&lt;&gt;"",C65&lt;=TODAY()+30,C65&gt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:C77">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>C65&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C109">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>C78&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2363,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
